--- a/arquivos_postos/output/09657072000180.xlsx
+++ b/arquivos_postos/output/09657072000180.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -477,6 +482,11 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -496,6 +506,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -515,6 +530,11 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +554,11 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -553,6 +578,11 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +602,11 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -591,6 +626,11 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -610,6 +650,11 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -622,7 +667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +701,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -675,6 +725,11 @@
       <c r="E2" t="n">
         <v>85000</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -694,6 +749,11 @@
       <c r="E3" t="n">
         <v>33000</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -713,6 +773,11 @@
       <c r="E4" t="n">
         <v>20964</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -731,6 +796,11 @@
       </c>
       <c r="E5" t="n">
         <v>16000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
